--- a/excel/lap=20_d=3.xlsx
+++ b/excel/lap=20_d=3.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDA01DD-8738-EC4B-A6AE-82A6FE48219E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C0C795-4575-304D-808E-4B4BCCC4BE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3263,6 +3263,14 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'lap=20_gap=0.25'!$C$2:$C$10</c:f>
@@ -3360,7 +3368,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3380,7 +3387,7 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="20"/>
@@ -3395,6 +3402,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:minorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3414,7 +3422,7 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="10"/>
@@ -8052,6 +8060,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8153,9 +8162,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <sheetData>
@@ -9656,6 +9668,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11159,6 +11172,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12662,6 +12676,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14165,6 +14180,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15668,6 +15684,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17073,9 +17090,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
